--- a/config/config_excel.xlsx
+++ b/config/config_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amich\Desktop\Star Guardian Project\StarGuardianProject\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amich\Documents\Star_Gardian_Project\StarGuardianProject\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEFD603-6D94-4007-8443-3E9085CAB1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB5B213-737B-4866-866D-5F1D6F0F3AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SHORTLIST" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="150">
   <si>
     <t>CCSDS_CDM_VERS</t>
   </si>
@@ -353,9 +353,6 @@
   </si>
   <si>
     <t>FILENAME</t>
-  </si>
-  <si>
-    <t>ROBUSTA-3A</t>
   </si>
   <si>
     <t>PAYLOAD</t>
@@ -435,9 +432,6 @@
     <t>2024-07-27</t>
   </si>
   <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
     <t>/week</t>
   </si>
   <si>
@@ -450,9 +444,6 @@
     <t>2024-07-28</t>
   </si>
   <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
     <t>≤1E-8</t>
   </si>
   <si>
@@ -469,6 +460,33 @@
   </si>
   <si>
     <t>2024-07-31</t>
+  </si>
+  <si>
+    <t>1 &lt;= X &lt;= 2</t>
+  </si>
+  <si>
+    <t>2 &lt;= X &lt;= 3</t>
+  </si>
+  <si>
+    <t>3 &lt;= X &lt;= 4</t>
+  </si>
+  <si>
+    <t>4 &lt;= X &lt;= 5</t>
+  </si>
+  <si>
+    <t>5 &lt;= X &lt;= 6</t>
+  </si>
+  <si>
+    <t>OBJECT 2 AGE</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>&gt; 1</t>
+  </si>
+  <si>
+    <t>X &gt; 6</t>
   </si>
 </sst>
 </file>
@@ -606,7 +624,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -623,13 +641,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -688,9 +715,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -727,6 +752,19 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3035,6 +3073,1013 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>ROBUSTA-3A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> - OBJECT_AGE</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21119553805774277"/>
+          <c:y val="0.22839176681862136"/>
+          <c:w val="0.39500699912510934"/>
+          <c:h val="0.66527494589492098"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-71DE-4AB1-9A26-D6B9AA877CCA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-71DE-4AB1-9A26-D6B9AA877CCA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-71DE-4AB1-9A26-D6B9AA877CCA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-71DE-4AB1-9A26-D6B9AA877CCA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-71DE-4AB1-9A26-D6B9AA877CCA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-71DE-4AB1-9A26-D6B9AA877CCA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-71DE-4AB1-9A26-D6B9AA877CCA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>STATISTIQUES!$AH$3:$AH$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>&gt; 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 &lt;= X &lt;= 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 &lt;= X &lt;= 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 &lt;= X &lt;= 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 &lt;= X &lt;= 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 &lt;= X &lt;= 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>X &gt; 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>STATISTIQUES!$AK$3:$AK$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A71-4AC3-8FD4-B7DC658A1ABF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3248,6 +4293,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graphique 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA352A0-4D2A-9D70-BE6E-AED094E4B375}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3521,8 +4602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DB1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3857,10 +4938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3869,13 +4950,14 @@
     <col min="16" max="16" width="13.88671875" customWidth="1"/>
     <col min="17" max="17" width="5.77734375" customWidth="1"/>
     <col min="18" max="18" width="6.33203125" customWidth="1"/>
-    <col min="20" max="21" width="8.88671875" style="46" customWidth="1"/>
+    <col min="20" max="21" width="8.88671875" style="44" customWidth="1"/>
+    <col min="35" max="35" width="5.44140625" customWidth="1"/>
+    <col min="36" max="36" width="5.21875" customWidth="1"/>
+    <col min="37" max="37" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>106</v>
-      </c>
+    <row r="1" spans="1:37" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3900,24 +4982,24 @@
         <v>0</v>
       </c>
       <c r="S1" s="3"/>
-      <c r="U1" s="37">
+      <c r="U1" s="35">
         <f>SUBTOTAL(9,U3:U200)</f>
         <v>0</v>
       </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="37">
+      <c r="V1" s="36"/>
+      <c r="W1" s="35">
         <f>SUM(W3:W4)</f>
         <v>0</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="37">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="35">
         <f>SUBTOTAL(9,Z3:Z6)</f>
         <v>0</v>
       </c>
       <c r="AA1" s="9"/>
       <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
+      <c r="AC1" s="50"/>
       <c r="AD1" s="10">
         <f>SUBTOTAL(9,AD3:AD6)</f>
         <v>0</v>
@@ -3927,9 +5009,16 @@
         <f>SUM(AF3:AF50000)</f>
         <v>0</v>
       </c>
-      <c r="AG1" s="12"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12">
+        <f>SUM(AI3:AI10)</f>
+        <v>0</v>
+      </c>
+      <c r="AK1" s="12"/>
     </row>
-    <row r="2" spans="1:33" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3946,63 +5035,67 @@
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
       <c r="S2" s="3"/>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="U2" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="V2" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z2" s="36"/>
+      <c r="Z2" s="34"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC2" s="17"/>
+        <v>116</v>
+      </c>
+      <c r="AC2" s="51"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="20" t="e">
+        <f>D3/D5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>119</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="19">
-        <v>95</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="20">
-        <f>D3/D5</f>
-        <v>0.54285714285714282</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>120</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="23">
         <v>1E-4</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K3" s="25">
         <f>COUNTIF(SHORTLIST!P2:P9000,"&gt;=1E-04")</f>
@@ -4021,7 +5114,7 @@
         <v>100</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q3" s="25">
         <f>COUNTIF(SHORTLIST!H2:H9000,"&lt;=100")</f>
@@ -4035,54 +5128,61 @@
         <f>R3/R1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T3" s="47"/>
-      <c r="V3" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="W3" s="42">
+      <c r="T3" s="45"/>
+      <c r="V3" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="W3" s="40">
         <f>COUNTIF(SHORTLIST!Y2:Y99999,V3)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="44" t="e">
+      <c r="X3" s="42" t="e">
         <f>W3/W1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y3" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z3" s="37">
+      <c r="Y3" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z3" s="35">
         <f>COUNTIF(SHORTLIST!AF2:AF99999,Y3)</f>
         <v>0</v>
       </c>
       <c r="AA3" s="9"/>
       <c r="AB3" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC3" s="11"/>
+        <v>122</v>
+      </c>
+      <c r="AC3" s="52"/>
       <c r="AD3" s="10"/>
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
-      <c r="AG3" s="28" t="e">
+      <c r="AG3" s="48" t="e">
         <f>AF3/AF1</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="AH3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55" t="e">
+        <f>AI3/AJ1</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="19">
-        <v>53</v>
-      </c>
+      <c r="D4" s="19"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="20">
+      <c r="F4" s="20" t="e">
         <f>D4/D5</f>
-        <v>0.30285714285714288</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" s="22">
         <v>1E-4</v>
@@ -4091,7 +5191,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K4" s="25">
         <f>COUNTIF(SHORTLIST!P2:P9000,"&gt;=1E-05")</f>
@@ -4112,7 +5212,7 @@
         <v>200</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="25">
         <f>COUNTIF(SHORTLIST!H2:H9000,"&lt;=200")</f>
@@ -4126,51 +5226,60 @@
         <f>R4/R1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T4" s="35"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="W4" s="42">
+      <c r="T4" s="33"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="W4" s="40">
         <f>COUNTIF(SHORTLIST!Y2:Y99999,V4)</f>
         <v>0</v>
       </c>
-      <c r="X4" s="44" t="e">
+      <c r="X4" s="42" t="e">
         <f>W4/W1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y4" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z4" s="37">
+      <c r="Y4" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z4" s="35">
         <f>COUNTIF(SHORTLIST!AF3:AF100000,Y4)</f>
         <v>0</v>
       </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC4" s="11"/>
+        <v>126</v>
+      </c>
+      <c r="AC4" s="52"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="12"/>
       <c r="AF4" s="12"/>
-      <c r="AG4" s="28" t="e">
+      <c r="AG4" s="48" t="e">
         <f>AF4/AF1</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="AH4" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55" t="e">
+        <f>AI4/AJ1</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="19">
         <f>D7-D6</f>
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="29"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="3"/>
       <c r="H5" s="22">
         <v>1.0000000000000001E-5</v>
@@ -4179,7 +5288,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K5" s="25">
         <f>COUNTIF(SHORTLIST!P2:P9000,"&gt;=1E-06")</f>
@@ -4200,7 +5309,7 @@
         <v>300</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="25">
         <f>COUNTIF(SHORTLIST!H2:H9000,"&lt;=300")</f>
@@ -4214,44 +5323,51 @@
         <f>R5/R1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T5" s="47"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z5" s="37">
+      <c r="T5" s="45"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z5" s="35">
         <f>COUNTIF(SHORTLIST!AF4:AF100001,Y5)</f>
         <v>0</v>
       </c>
       <c r="AA5" s="9"/>
       <c r="AB5" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC5" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="AC5" s="52"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
-      <c r="AG5" s="30" t="e">
+      <c r="AG5" s="49" t="e">
         <f>AF5/AF1</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="AH5" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55" t="e">
+        <f>AI5/AJ1</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="31" t="s">
-        <v>132</v>
-      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="20">
+      <c r="F6" s="20" t="e">
         <f>F3*7</f>
-        <v>3.8</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H6" s="22">
         <v>9.9999999999999995E-7</v>
@@ -4260,7 +5376,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K6" s="25">
         <f>COUNTIF(SHORTLIST!P2:P9000,"&gt;=1E-07")</f>
@@ -4281,7 +5397,7 @@
         <v>400</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q6" s="25">
         <f>COUNTIF(SHORTLIST!H2:H9000,"&lt;=400")</f>
@@ -4295,46 +5411,53 @@
         <f>R6/R1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T6" s="47"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="36"/>
+      <c r="T6" s="45"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="34"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC6" s="11"/>
+        <v>134</v>
+      </c>
+      <c r="AC6" s="52"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="12"/>
       <c r="AF6" s="12"/>
-      <c r="AG6" s="28" t="e">
+      <c r="AG6" s="48" t="e">
         <f>AF6/AF1</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="AH6" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="55" t="e">
+        <f>AI6/AJ1</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="18"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="31" t="s">
-        <v>137</v>
-      </c>
+      <c r="D7" s="29"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="20">
+      <c r="F7" s="20" t="e">
         <f>F4*7</f>
-        <v>2.12</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H7" s="22">
         <v>1E-8</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32" t="s">
-        <v>138</v>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
+        <v>135</v>
       </c>
       <c r="K7" s="25">
         <f>COUNTIF(SHORTLIST!P2:P9000,"&gt;=1E-08")</f>
@@ -4355,7 +5478,7 @@
         <v>500</v>
       </c>
       <c r="P7" s="25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q7" s="25">
         <f>COUNTIF(SHORTLIST!H2:H9000,"&lt;=500")</f>
@@ -4369,23 +5492,32 @@
         <f>R7/R1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T7" s="47"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="36"/>
+      <c r="T7" s="45"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="34"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC7" s="11"/>
+        <v>137</v>
+      </c>
+      <c r="AC7" s="52"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
-      <c r="AG7" s="30"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="55" t="e">
+        <f>AI7/AJ1</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4393,16 +5525,16 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="33"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="33"/>
+      <c r="N8" s="31"/>
       <c r="O8" s="3"/>
       <c r="P8" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="25">
         <f>COUNTIF(SHORTLIST!H2:H9000,"&lt;=1000")</f>
@@ -4416,24 +5548,33 @@
         <f>R8/R1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T8" s="35"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="36"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="34"/>
       <c r="AA8" s="9"/>
       <c r="AB8" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC8" s="11"/>
+        <v>139</v>
+      </c>
+      <c r="AC8" s="52"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="55" t="e">
+        <f>AI8/AJ1</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -4441,81 +5582,100 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="33"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="33"/>
+      <c r="N9" s="31"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="47"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="36"/>
+      <c r="T9" s="45"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="34"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC9" s="11"/>
+        <v>140</v>
+      </c>
+      <c r="AC9" s="52"/>
       <c r="AD9" s="10"/>
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="55" t="e">
+        <f>AI9/AJ1</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="T10" s="47"/>
-      <c r="AB10" s="34">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="T10" s="45"/>
+      <c r="AB10" s="32">
         <v>45505</v>
       </c>
-      <c r="AC10" s="34" t="str">
+      <c r="AC10" s="53" t="str">
         <f>YEAR(AB10)&amp;"-"&amp;MONTH(AB10)&amp;"-"&amp;DAY(AB10)</f>
         <v>2024-8-1</v>
       </c>
       <c r="AD10" s="10"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="T11" s="47"/>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="T11" s="45"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="T12" s="35"/>
-      <c r="U12" s="37"/>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="T12" s="33"/>
+      <c r="U12" s="35"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="T13" s="35"/>
-      <c r="U13" s="37"/>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="T13" s="33"/>
+      <c r="U13" s="35"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="T14" s="47"/>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="T14" s="45"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="T15" s="47"/>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="T15" s="45"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="T16" s="35"/>
-      <c r="U16" s="37"/>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="T16" s="33"/>
+      <c r="U16" s="35"/>
     </row>
     <row r="17" spans="20:21" x14ac:dyDescent="0.3">
-      <c r="T17" s="35"/>
-      <c r="U17" s="37"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="35"/>
     </row>
     <row r="18" spans="20:21" x14ac:dyDescent="0.3">
-      <c r="T18" s="35"/>
-      <c r="U18" s="37"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="35"/>
     </row>
     <row r="19" spans="20:21" x14ac:dyDescent="0.3">
-      <c r="T19" s="35"/>
-      <c r="U19" s="37"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4523,7 +5683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
